--- a/CashFlow/AWK_cashflow.xlsx
+++ b/CashFlow/AWK_cashflow.xlsx
@@ -1104,19 +1104,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>347000000.0</v>
+        <v>323000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>414000000.0</v>
+        <v>337000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>434000000.0</v>
+        <v>206000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>305000000.0</v>
+        <v>183000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>66000000.0</v>
+        <v>187000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>32000000.0</v>
